--- a/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/oligosDesignWorkbookDtag.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/oligosDesignWorkbookDtag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -234,6 +234,48 @@
   </si>
   <si>
     <t>bsd insert for plvx</t>
+  </si>
+  <si>
+    <t>peak3190Val_fwd</t>
+  </si>
+  <si>
+    <t>peak3190Val_rev</t>
+  </si>
+  <si>
+    <t>peak3191Val_fwd</t>
+  </si>
+  <si>
+    <t>peak3191Val_rev</t>
+  </si>
+  <si>
+    <t>TGTGTGCATTATCCTCTGAAGTTT</t>
+  </si>
+  <si>
+    <t>CGGTGAACTCATATCTGGCAT</t>
+  </si>
+  <si>
+    <t>crispr mod site for DLG2, peak 3190</t>
+  </si>
+  <si>
+    <t>crispr mod site for DLG2, peak 3191</t>
+  </si>
+  <si>
+    <t>ACTTGCAGCACTAATACAACCA</t>
+  </si>
+  <si>
+    <t>GTGCCTGCCCTAAAACCAAG</t>
+  </si>
+  <si>
+    <t>m13rev</t>
+  </si>
+  <si>
+    <t>m13fwd</t>
+  </si>
+  <si>
+    <t>caggaaacagctatgac</t>
+  </si>
+  <si>
+    <t>gtaaaacgacggccagt</t>
   </si>
 </sst>
 </file>
@@ -581,7 +623,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C26" si="0">LEN(B2)</f>
+        <f t="shared" ref="C2:C32" si="0">LEN(B2)</f>
         <v>51</v>
       </c>
       <c r="D2" s="3">
@@ -1038,6 +1080,96 @@
       <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="3">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3">
+        <v>581</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D29" s="3">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3">
+        <v>832</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">

--- a/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/oligosDesignWorkbookDtag.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/oligosDesignWorkbookDtag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -276,6 +276,30 @@
   </si>
   <si>
     <t>gtaaaacgacggccagt</t>
+  </si>
+  <si>
+    <t>peak3190Val_fwd2</t>
+  </si>
+  <si>
+    <t>peak3190Val_rev2</t>
+  </si>
+  <si>
+    <t>GTTCTGCACAATCTGTGTGGGG</t>
+  </si>
+  <si>
+    <t>TCACGGTGAACTCATATCTGGC</t>
+  </si>
+  <si>
+    <t>peak3190Val_fwd3</t>
+  </si>
+  <si>
+    <t>peak3190Val_rev3</t>
+  </si>
+  <si>
+    <t>AGGACACACATACACAAAGCCACC</t>
+  </si>
+  <si>
+    <t>TTGCAAATCACAACCCAAAAGTGGA</t>
   </si>
 </sst>
 </file>
@@ -622,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,35 +1196,101 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:C34" si="1">LEN(B33)</f>
+        <v>22</v>
+      </c>
+      <c r="D33" s="3">
+        <v>68</v>
+      </c>
+      <c r="E33" s="3">
+        <v>757</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ref="C35:C36" si="2">LEN(B35)</f>
+        <v>24</v>
+      </c>
+      <c r="D35" s="3">
+        <v>69</v>
+      </c>
+      <c r="E35" s="3">
+        <v>798</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">

--- a/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/oligosDesignWorkbookDtag.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/oligosDesignWorkbookDtag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -300,6 +300,99 @@
   </si>
   <si>
     <t>TTGCAAATCACAACCCAAAAGTGGA</t>
+  </si>
+  <si>
+    <t>nFLAGyb1_fwd</t>
+  </si>
+  <si>
+    <t>nFLAGyb1_rev</t>
+  </si>
+  <si>
+    <t>cFLAGyb1_fwd</t>
+  </si>
+  <si>
+    <t>cFLAGyb1_rev</t>
+  </si>
+  <si>
+    <t>nDTAGyb1_fwd</t>
+  </si>
+  <si>
+    <t>nDTAGyb1_rev</t>
+  </si>
+  <si>
+    <t>nYB1yb1_fwd</t>
+  </si>
+  <si>
+    <t>nYB1yb1_rev</t>
+  </si>
+  <si>
+    <t>taccggactcagatctcgagccaccATGGGAGTGCAGGTGGAAACC</t>
+  </si>
+  <si>
+    <t>ccatcatgatccttgtagtcGCCGCCTTCCAGTTTTAGAAGC</t>
+  </si>
+  <si>
+    <t>ttctaaaactggaaggcggcGACTACAAGGATCATGATGGC</t>
+  </si>
+  <si>
+    <t>gtctcggcctcgctgctcatCTTGTCGTCATCATCCTTATAATCT</t>
+  </si>
+  <si>
+    <t>ataaggatgatgacgacaagATGAGCAGCGAGGCCG</t>
+  </si>
+  <si>
+    <t>acccggtagaattatctagaTTACTCAGCCCCGCCCTG</t>
+  </si>
+  <si>
+    <t>cDTAGyb1_fwd</t>
+  </si>
+  <si>
+    <t>cDTAGyb1_rev</t>
+  </si>
+  <si>
+    <t>cYB1yb1_fwd</t>
+  </si>
+  <si>
+    <t>cYB1yb1_rev</t>
+  </si>
+  <si>
+    <t>taccggactcagatctcgagccaccATGAGCAGCGAGGCCG</t>
+  </si>
+  <si>
+    <t>ccatcatgatccttgtagtcCTCAGCCCCGCCCTG</t>
+  </si>
+  <si>
+    <t>ctgagcagggcggggctgagGACTACAAGGATCATGATGGC</t>
+  </si>
+  <si>
+    <t>atggtttccacctgcactccgccgccCTTGTCGTCATCATCCTTATAATCT</t>
+  </si>
+  <si>
+    <t>acccggtagaattatctagaTTATTCCAGTTTTAGAAGCTCCACA</t>
+  </si>
+  <si>
+    <t>ataaggatgatgacgacaagggcggcGGAGTGCAGGTGGAAACCAT</t>
+  </si>
+  <si>
+    <t>nFLAGcherry_fwd</t>
+  </si>
+  <si>
+    <t>nFLAGcherry_rev</t>
+  </si>
+  <si>
+    <t>nCHERRYcherry_fwd</t>
+  </si>
+  <si>
+    <t>nCHERRYcherry_rev</t>
+  </si>
+  <si>
+    <t>tcctcgcccttgctcaccatCTTGTCGTCATCATCCTTATAATCT</t>
+  </si>
+  <si>
+    <t>ataaggatgatgacgacaagATGGTGAGCAAGGGCGAG</t>
+  </si>
+  <si>
+    <t>acccggtagaattatctagaTTACTTGTACAGCTCGTCCATGCC</t>
   </si>
 </sst>
 </file>
@@ -350,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -361,9 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1327,7 @@
         <v>90</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" ref="C35:C36" si="2">LEN(B35)</f>
+        <f t="shared" ref="C35:C53" si="2">LEN(B35)</f>
         <v>24</v>
       </c>
       <c r="D35" s="3">
@@ -1263,41 +1353,247 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D38" s="3">
+        <v>70</v>
+      </c>
+      <c r="E38" s="3">
+        <v>375</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D40" s="3">
+        <v>62</v>
+      </c>
+      <c r="E40" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="6"/>
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D42" s="3">
+        <v>70</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1015</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="6"/>
+      <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="6"/>
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D44" s="3">
+        <v>64</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1017</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="6"/>
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>62</v>
+      </c>
+      <c r="E46" s="3">
+        <v>112</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D48" s="3">
+        <v>70</v>
+      </c>
+      <c r="E48" s="3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D50" s="3">
+        <v>62</v>
+      </c>
+      <c r="E50" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D52" s="3">
+        <v>69</v>
+      </c>
+      <c r="E52" s="3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/oligosDesignWorkbookDtag.xlsx
+++ b/sorensenLab/relatedToYbx1/design20210928_ybx1DtagSystem/oligosDesignWorkbookDtag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -393,6 +393,24 @@
   </si>
   <si>
     <t>acccggtagaattatctagaTTACTTGTACAGCTCGTCCATGCC</t>
+  </si>
+  <si>
+    <t>template is n-terminal DTAG</t>
+  </si>
+  <si>
+    <t>template is n-terminal FLAG</t>
+  </si>
+  <si>
+    <t>template is c-terminal DTAG</t>
+  </si>
+  <si>
+    <t>template is c-terminal FLAG</t>
+  </si>
+  <si>
+    <t>template is YB1</t>
+  </si>
+  <si>
+    <t>template is mCherry</t>
   </si>
 </sst>
 </file>
@@ -737,7 +755,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A38" sqref="A38:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,6 +1387,9 @@
       <c r="E38" s="3">
         <v>375</v>
       </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1399,6 +1420,9 @@
       <c r="E40" s="3">
         <v>106</v>
       </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -1429,6 +1453,9 @@
       <c r="E42" s="3">
         <v>1015</v>
       </c>
+      <c r="F42" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -1459,6 +1486,9 @@
       <c r="E44" s="3">
         <v>1017</v>
       </c>
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1489,6 +1519,9 @@
       <c r="E46" s="3">
         <v>112</v>
       </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -1519,8 +1552,11 @@
       <c r="E48" s="3">
         <v>370</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>109</v>
       </c>
@@ -1532,7 +1568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>116</v>
       </c>
@@ -1549,8 +1585,11 @@
       <c r="E50" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>117</v>
       </c>
@@ -1562,7 +1601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>118</v>
       </c>
@@ -1579,8 +1618,11 @@
       <c r="E52" s="3">
         <v>751</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>119</v>
       </c>
